--- a/Excel Projects/Conditional Formatting.xlsx
+++ b/Excel Projects/Conditional Formatting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Excel Series Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e52e7eb24d0624ed/Desktop/Data-analysis-with-python-projects/Excel Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE12AABD-2C2A-4D60-B298-E861FD33474F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{EE12AABD-2C2A-4D60-B298-E861FD33474F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE289517-740F-4F64-824D-E361979609BF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -333,7 +333,142 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -347,9 +482,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -387,7 +522,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -493,7 +628,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -635,7 +770,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -645,26 +780,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1027015F-D30F-450C-928C-DE78480974B7}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -734,7 +869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -769,7 +904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -804,7 +939,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -839,7 +974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -874,7 +1009,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -909,7 +1044,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -944,7 +1079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -979,7 +1114,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1014,19 +1149,27 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D22" t="str">
-        <f t="shared" ref="D22:D23" si="0">CONCATENATE(B12," ",C12)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D22:D23" si="0">CONCATENATE(B13," ",C13)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I2:I10">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J10">
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G10">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H10">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>H2:H10 &gt; 50000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1035,16 +1178,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CCAA7F-6F85-4102-B7D4-D80770622F9F}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>72</v>
       </c>
@@ -1082,7 +1225,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -1123,7 +1266,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -1164,7 +1307,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -1206,6 +1349,60 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:M2">
+    <cfRule type="iconSet" priority="6">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="5Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:M3">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="5Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:M4">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="5Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>